--- a/Protocols/Книга1.xlsx
+++ b/Protocols/Книга1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учёба\5 курс\1 семестр\СППР\курсовая\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Аркуш5" sheetId="5" r:id="rId5"/>
     <sheet name="Аркуш6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">Выезд квалифицированных специалистов заграницу </t>
   </si>
@@ -92,6 +87,96 @@
   </si>
   <si>
     <t>Продовження</t>
+  </si>
+  <si>
+    <t>Внутрішні агенти</t>
+  </si>
+  <si>
+    <t>Країни ЄС</t>
+  </si>
+  <si>
+    <t>Основні покупці остаточної продукції</t>
+  </si>
+  <si>
+    <t>Країни СНД</t>
+  </si>
+  <si>
+    <t>Країни Далекого Сходу</t>
+  </si>
+  <si>
+    <t>Основний імпортувальник сировини</t>
+  </si>
+  <si>
+    <t>Використання власної сировини</t>
+  </si>
+  <si>
+    <t>Країни Близького Сходу</t>
+  </si>
+  <si>
+    <t>Росія</t>
+  </si>
+  <si>
+    <t>Статус бойових дій в регіоні</t>
+  </si>
+  <si>
+    <t>Активні</t>
+  </si>
+  <si>
+    <t>Заморожені</t>
+  </si>
+  <si>
+    <t>Припинені (контроль території)</t>
+  </si>
+  <si>
+    <t>Китай, Індія, інші країни Далекого Сходу</t>
+  </si>
+  <si>
+    <t>Припинені (втрата контролю)</t>
+  </si>
+  <si>
+    <t>США</t>
+  </si>
+  <si>
+    <t>Запаси, близькі до виснаження</t>
+  </si>
+  <si>
+    <t>Стан внутрішньої сировинної бази</t>
+  </si>
+  <si>
+    <t>Достатні запаси при низькому рівні розробки родовищ</t>
+  </si>
+  <si>
+    <t>Достатні запаси при адекватному рівні розробки родовищ</t>
+  </si>
+  <si>
+    <t>Середній вік робочої сили</t>
+  </si>
+  <si>
+    <t>до 25</t>
+  </si>
+  <si>
+    <t>25-35</t>
+  </si>
+  <si>
+    <t>35-55</t>
+  </si>
+  <si>
+    <t>більше 55</t>
+  </si>
+  <si>
+    <t>Рівень кваліфікації фахівців</t>
+  </si>
+  <si>
+    <t>Адекватний ринкові рівень</t>
+  </si>
+  <si>
+    <t>Низький</t>
+  </si>
+  <si>
+    <t>Середній</t>
+  </si>
+  <si>
+    <t>Перекваліфікація</t>
   </si>
 </sst>
 </file>
@@ -148,7 +233,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,7 +503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,20 +511,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:I8"/>
+  <dimension ref="D5:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:9" ht="15.75" x14ac:dyDescent="0.3">
@@ -511,6 +596,108 @@
       </c>
       <c r="G8" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Protocols/Книга1.xlsx
+++ b/Protocols/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t xml:space="preserve">Выезд квалифицированных специалистов заграницу </t>
   </si>
@@ -177,6 +177,69 @@
   </si>
   <si>
     <t>Перекваліфікація</t>
+  </si>
+  <si>
+    <t>Інвестиційні заходи</t>
+  </si>
+  <si>
+    <t>Заходи щодо інфраструктури</t>
+  </si>
+  <si>
+    <t>Організаційні заходи</t>
+  </si>
+  <si>
+    <t>Зниження податків на інвестиції</t>
+  </si>
+  <si>
+    <t>Заходи з подолання корупції в інвестиційній сфері</t>
+  </si>
+  <si>
+    <t>Зовнішня пропаганда інвестриційної привабливості</t>
+  </si>
+  <si>
+    <t>Збільшення частки бюджету на внутрішні інвестиції</t>
+  </si>
+  <si>
+    <t>Підтримка існуючих, створення нових інвестиційних фондів для населення</t>
+  </si>
+  <si>
+    <t>Переобладнання існуючих підприємств</t>
+  </si>
+  <si>
+    <t>Нові проекти будівництва кар'єрів та ГКЗ</t>
+  </si>
+  <si>
+    <t>Відкриття іноземних філій металургійних конгломератів</t>
+  </si>
+  <si>
+    <t>Реорганізація транспортних розв'язок</t>
+  </si>
+  <si>
+    <t>Розробка родовищ, близьких до переробних підприємств</t>
+  </si>
+  <si>
+    <t>Перехід на обладнання міжнародного рівня якості</t>
+  </si>
+  <si>
+    <t>Зниження корупції на всіх рівнях</t>
+  </si>
+  <si>
+    <t>Встановлення нових контактів з іноземними покупцями продукції</t>
+  </si>
+  <si>
+    <t>Пропаганда престижності професії металурга</t>
+  </si>
+  <si>
+    <t>Зниження пенсійного віку для окремих категорій металургійних працівників</t>
+  </si>
+  <si>
+    <t>Підвищення рівня оплати праці</t>
+  </si>
+  <si>
+    <t>Перегляд доцільності співпраці зі старими постачальниками</t>
+  </si>
+  <si>
+    <t>Еволюціфна заміна олагархічної формації в галузі</t>
   </si>
 </sst>
 </file>
@@ -227,10 +290,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -511,17 +577,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:I19"/>
+  <dimension ref="D5:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
     <col min="7" max="7" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" customWidth="1"/>
     <col min="9" max="9" width="24.28515625" customWidth="1"/>
@@ -598,6 +664,12 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>23</v>
@@ -700,7 +772,96 @@
         <v>36</v>
       </c>
     </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D23:E23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Protocols/Книга1.xlsx
+++ b/Protocols/Книга1.xlsx
@@ -239,14 +239,14 @@
     <t>Перегляд доцільності співпраці зі старими постачальниками</t>
   </si>
   <si>
-    <t>Еволюціфна заміна олагархічної формації в галузі</t>
+    <t>Еволюційна заміна олагархічної формації в галузі</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +262,15 @@
       <name val="Palatino Linotype"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -290,13 +299,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -569,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -579,17 +589,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="46.42578125" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="7" max="7" width="50.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="59.28515625" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
     <col min="9" max="9" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -670,23 +680,23 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="14" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -778,14 +788,14 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+    <row r="25" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
